--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -471,6 +471,12 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -479,12 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2149,17 +2149,17 @@
     </row>
     <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
-      <c r="B4" s="43" t="str">
+      <c r="B4" s="45" t="str">
         <f>"Crude Mortality Rates within 30-days of Discharge, including all in-hospital deaths, by NHS Board of Treatment: " &amp;C10</f>
         <v>Crude Mortality Rates within 30-days of Discharge, including all in-hospital deaths, by NHS Board of Treatment: NHS Ayrshire &amp; Arran</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2187,14 +2187,14 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:31" s="8" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="str">
@@ -2250,18 +2250,18 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="43" t="str">
         <f>VLOOKUP(A6,location_lookup!$A:$B,2,FALSE)</f>
         <v>NHS Ayrshire &amp; Arran</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="33"/>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
@@ -2288,33 +2288,33 @@
     <row r="12" spans="1:31" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" s="29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H12" s="29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I12" s="30">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2326,7 +2326,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2339,7 +2339,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I13" s="45" t="str">
+      <c r="I13" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="A14" s="38">
         <v>2</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2382,7 +2382,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2395,7 +2395,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I14" s="45" t="str">
+      <c r="I14" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2438,7 +2438,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2451,7 +2451,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I15" s="45" t="str">
+      <c r="I15" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="A16" s="38">
         <v>4</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2482,7 +2482,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E16" s="45" t="str">
+      <c r="E16" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2495,7 +2495,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I16" s="45" t="str">
+      <c r="I16" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="A17" s="38">
         <v>5</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2526,7 +2526,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E17" s="45" t="str">
+      <c r="E17" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2539,7 +2539,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I17" s="45" t="str">
+      <c r="I17" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="A18" s="38">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2582,7 +2582,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E18" s="45" t="str">
+      <c r="E18" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2595,7 +2595,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I18" s="45" t="str">
+      <c r="I18" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="A19" s="38">
         <v>7</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2626,7 +2626,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E19" s="45" t="str">
+      <c r="E19" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2639,7 +2639,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I19" s="45" t="str">
+      <c r="I19" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="A20" s="38">
         <v>8</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2682,7 +2682,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E20" s="45" t="str">
+      <c r="E20" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2695,7 +2695,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I20" s="45" t="str">
+      <c r="I20" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="A21" s="38">
         <v>9</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2726,7 +2726,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E21" s="45" t="str">
+      <c r="E21" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2739,7 +2739,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I21" s="45" t="str">
+      <c r="I21" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="A22" s="38">
         <v>10</v>
       </c>
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2770,7 +2770,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E22" s="45" t="str">
+      <c r="E22" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2783,7 +2783,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I22" s="45" t="str">
+      <c r="I22" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="A23" s="38">
         <v>11</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2826,7 +2826,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E23" s="45" t="str">
+      <c r="E23" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2839,7 +2839,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I23" s="45" t="str">
+      <c r="I23" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="A24" s="38">
         <v>12</v>
       </c>
-      <c r="B24" s="44" t="str">
+      <c r="B24" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2870,7 +2870,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E24" s="45" t="str">
+      <c r="E24" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2883,7 +2883,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I24" s="45" t="str">
+      <c r="I24" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="A25" s="38">
         <v>13</v>
       </c>
-      <c r="B25" s="44" t="str">
+      <c r="B25" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2926,7 +2926,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E25" s="45" t="str">
+      <c r="E25" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2939,7 +2939,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I25" s="45" t="str">
+      <c r="I25" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="A26" s="38">
         <v>14</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2970,7 +2970,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E26" s="45" t="str">
+      <c r="E26" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -2983,7 +2983,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I26" s="45" t="str">
+      <c r="I26" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="A27" s="38">
         <v>15</v>
       </c>
-      <c r="B27" s="44" t="str">
+      <c r="B27" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3026,7 +3026,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E27" s="45" t="str">
+      <c r="E27" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3039,7 +3039,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I27" s="45" t="str">
+      <c r="I27" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="A28" s="38">
         <v>16</v>
       </c>
-      <c r="B28" s="44" t="str">
+      <c r="B28" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3070,7 +3070,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E28" s="45" t="str">
+      <c r="E28" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3083,7 +3083,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I28" s="45" t="str">
+      <c r="I28" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="A29" s="38">
         <v>17</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3114,7 +3114,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E29" s="45" t="str">
+      <c r="E29" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3127,7 +3127,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I29" s="45" t="str">
+      <c r="I29" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="A30" s="38">
         <v>18</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3170,7 +3170,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E30" s="45" t="str">
+      <c r="E30" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3183,7 +3183,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I30" s="45" t="str">
+      <c r="I30" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="A31" s="38">
         <v>19</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3214,7 +3214,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E31" s="45" t="str">
+      <c r="E31" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3227,7 +3227,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I31" s="45" t="str">
+      <c r="I31" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="A32" s="38">
         <v>20</v>
       </c>
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,B$12,FALSE))&amp;"p"</f>
         <v>-p</v>
       </c>
@@ -3258,7 +3258,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="E32" s="45" t="str">
+      <c r="E32" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3271,7 +3271,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="I32" s="45" t="str">
+      <c r="I32" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3706,15 +3706,15 @@
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
-      <c r="B4" s="43" t="str">
+      <c r="B4" s="45" t="str">
         <f>"Crude Mortality Rates per 1,000 Population by NHS Board of Residence (All Cause): "&amp;C10</f>
         <v>Crude Mortality Rates per 1,000 Population by NHS Board of Residence (All Cause): NHS Ayrshire &amp; Arran</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="15"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3742,12 +3742,12 @@
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:29" s="8" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="str">
@@ -3801,16 +3801,16 @@
     </row>
     <row r="10" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="43" t="str">
         <f>VLOOKUP(A6,location_lookup!$A:$B,2,FALSE)</f>
         <v>NHS Ayrshire &amp; Arran</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
@@ -3831,22 +3831,20 @@
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" s="29">
-        <v>11</v>
-      </c>
-      <c r="E12" s="30">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E12" s="30"/>
       <c r="F12" s="31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12" s="29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="29">
         <v>14</v>
@@ -3859,7 +3857,7 @@
       <c r="A13" s="38">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3867,7 +3865,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D13" s="45" t="str">
+      <c r="D13" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3876,7 +3874,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G13" s="45" t="str">
+      <c r="G13" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3907,7 +3905,7 @@
       <c r="A14" s="38">
         <v>2</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3915,7 +3913,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D14" s="45" t="str">
+      <c r="D14" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3924,7 +3922,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G14" s="45" t="str">
+      <c r="G14" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3955,7 +3953,7 @@
       <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3963,7 +3961,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D15" s="45" t="str">
+      <c r="D15" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3972,7 +3970,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G15" s="45" t="str">
+      <c r="G15" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3991,7 +3989,7 @@
       <c r="A16" s="38">
         <v>4</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -3999,7 +3997,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D16" s="45" t="str">
+      <c r="D16" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4008,7 +4006,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G16" s="45" t="str">
+      <c r="G16" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4027,7 +4025,7 @@
       <c r="A17" s="38">
         <v>5</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4035,7 +4033,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D17" s="45" t="str">
+      <c r="D17" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4044,7 +4042,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G17" s="45" t="str">
+      <c r="G17" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4075,7 +4073,7 @@
       <c r="A18" s="38">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4083,7 +4081,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D18" s="45" t="str">
+      <c r="D18" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4092,7 +4090,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G18" s="45" t="str">
+      <c r="G18" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4111,7 +4109,7 @@
       <c r="A19" s="38">
         <v>7</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4119,7 +4117,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D19" s="45" t="str">
+      <c r="D19" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4128,7 +4126,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G19" s="45" t="str">
+      <c r="G19" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4159,7 +4157,7 @@
       <c r="A20" s="38">
         <v>8</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4167,7 +4165,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D20" s="45" t="str">
+      <c r="D20" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4176,7 +4174,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G20" s="45" t="str">
+      <c r="G20" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4195,7 +4193,7 @@
       <c r="A21" s="38">
         <v>9</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4203,7 +4201,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D21" s="45" t="str">
+      <c r="D21" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4212,7 +4210,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G21" s="45" t="str">
+      <c r="G21" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4231,7 +4229,7 @@
       <c r="A22" s="38">
         <v>10</v>
       </c>
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4239,7 +4237,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D22" s="45" t="str">
+      <c r="D22" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4248,7 +4246,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G22" s="45" t="str">
+      <c r="G22" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4279,7 +4277,7 @@
       <c r="A23" s="38">
         <v>11</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4287,7 +4285,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D23" s="45" t="str">
+      <c r="D23" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4296,7 +4294,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G23" s="45" t="str">
+      <c r="G23" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4315,7 +4313,7 @@
       <c r="A24" s="38">
         <v>12</v>
       </c>
-      <c r="B24" s="44" t="str">
+      <c r="B24" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4323,7 +4321,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D24" s="45" t="str">
+      <c r="D24" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4332,7 +4330,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G24" s="45" t="str">
+      <c r="G24" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4363,7 +4361,7 @@
       <c r="A25" s="38">
         <v>13</v>
       </c>
-      <c r="B25" s="44" t="str">
+      <c r="B25" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4371,7 +4369,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D25" s="45" t="str">
+      <c r="D25" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4380,7 +4378,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G25" s="45" t="str">
+      <c r="G25" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4399,7 +4397,7 @@
       <c r="A26" s="38">
         <v>14</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4407,7 +4405,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D26" s="45" t="str">
+      <c r="D26" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4416,7 +4414,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G26" s="45" t="str">
+      <c r="G26" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4447,7 +4445,7 @@
       <c r="A27" s="38">
         <v>15</v>
       </c>
-      <c r="B27" s="44" t="str">
+      <c r="B27" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4455,7 +4453,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D27" s="45" t="str">
+      <c r="D27" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4464,7 +4462,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G27" s="45" t="str">
+      <c r="G27" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4483,7 +4481,7 @@
       <c r="A28" s="38">
         <v>16</v>
       </c>
-      <c r="B28" s="44" t="str">
+      <c r="B28" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4491,7 +4489,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D28" s="45" t="str">
+      <c r="D28" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4500,7 +4498,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G28" s="45" t="str">
+      <c r="G28" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4519,7 +4517,7 @@
       <c r="A29" s="38">
         <v>17</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4527,7 +4525,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D29" s="45" t="str">
+      <c r="D29" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4536,7 +4534,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4567,7 +4565,7 @@
       <c r="A30" s="38">
         <v>18</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4575,7 +4573,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D30" s="45" t="str">
+      <c r="D30" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4584,7 +4582,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G30" s="45" t="str">
+      <c r="G30" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4603,7 +4601,7 @@
       <c r="A31" s="38">
         <v>19</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4611,7 +4609,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D31" s="45" t="str">
+      <c r="D31" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4620,7 +4618,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G31" s="45" t="str">
+      <c r="G31" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4639,7 +4637,7 @@
       <c r="A32" s="38">
         <v>20</v>
       </c>
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="41" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,B$12,FALSE))&amp;"p"</f>
         <v>-p</v>
       </c>
@@ -4647,7 +4645,7 @@
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="D32" s="45" t="str">
+      <c r="D32" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4656,7 +4654,7 @@
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G32" s="45" t="str">
+      <c r="G32" s="42" t="str">
         <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
@@ -4966,7 +4964,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O4246"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1000"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4980,14 +4980,14 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>C2&amp;D2&amp;M2</f>
+        <f>C2&amp;F2&amp;J2</f>
         <v/>
       </c>
       <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">C3&amp;D3&amp;M3</f>
+        <f t="shared" ref="A3:A66" si="0">C3&amp;F3&amp;J3</f>
         <v/>
       </c>
       <c r="O3" s="40"/>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">C67&amp;D67&amp;M67</f>
+        <f t="shared" ref="A67:A130" si="1">C67&amp;F67&amp;J67</f>
         <v/>
       </c>
       <c r="O67" s="40"/>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">C131&amp;D131&amp;M131</f>
+        <f t="shared" ref="A131:A194" si="2">C131&amp;F131&amp;J131</f>
         <v/>
       </c>
       <c r="O131" s="40"/>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">C195&amp;D195&amp;M195</f>
+        <f t="shared" ref="A195:A258" si="3">C195&amp;F195&amp;J195</f>
         <v/>
       </c>
       <c r="O195" s="40"/>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">C259&amp;D259&amp;M259</f>
+        <f t="shared" ref="A259:A322" si="4">C259&amp;F259&amp;J259</f>
         <v/>
       </c>
       <c r="O259" s="40"/>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">C323&amp;D323&amp;M323</f>
+        <f t="shared" ref="A323:A386" si="5">C323&amp;F323&amp;J323</f>
         <v/>
       </c>
       <c r="O323" s="40"/>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">C387&amp;D387&amp;M387</f>
+        <f t="shared" ref="A387:A450" si="6">C387&amp;F387&amp;J387</f>
         <v/>
       </c>
       <c r="O387" s="40"/>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A514" si="7">C451&amp;D451&amp;M451</f>
+        <f t="shared" ref="A451:A514" si="7">C451&amp;F451&amp;J451</f>
         <v/>
       </c>
       <c r="O451" s="40"/>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
-        <f t="shared" ref="A515:A578" si="8">C515&amp;D515&amp;M515</f>
+        <f t="shared" ref="A515:A578" si="8">C515&amp;F515&amp;J515</f>
         <v/>
       </c>
       <c r="O515" s="40"/>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
-        <f t="shared" ref="A579:A642" si="9">C579&amp;D579&amp;M579</f>
+        <f t="shared" ref="A579:A642" si="9">C579&amp;F579&amp;J579</f>
         <v/>
       </c>
       <c r="O579" s="40"/>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
-        <f t="shared" ref="A643:A706" si="10">C643&amp;D643&amp;M643</f>
+        <f t="shared" ref="A643:A706" si="10">C643&amp;F643&amp;J643</f>
         <v/>
       </c>
       <c r="O643" s="40"/>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="str">
-        <f t="shared" ref="A707:A770" si="11">C707&amp;D707&amp;M707</f>
+        <f t="shared" ref="A707:A770" si="11">C707&amp;F707&amp;J707</f>
         <v/>
       </c>
       <c r="K707" s="40"/>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" t="str">
-        <f t="shared" ref="A771:A834" si="12">C771&amp;D771&amp;M771</f>
+        <f t="shared" ref="A771:A834" si="12">C771&amp;F771&amp;J771</f>
         <v/>
       </c>
       <c r="K771" s="40"/>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="str">
-        <f t="shared" ref="A835:A898" si="13">C835&amp;D835&amp;M835</f>
+        <f t="shared" ref="A835:A898" si="13">C835&amp;F835&amp;J835</f>
         <v/>
       </c>
       <c r="K835" s="40"/>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" t="str">
-        <f t="shared" ref="A899:A962" si="14">C899&amp;D899&amp;M899</f>
+        <f t="shared" ref="A899:A962" si="14">C899&amp;F899&amp;J899</f>
         <v/>
       </c>
       <c r="K899" s="40"/>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" t="str">
-        <f t="shared" ref="A963:A1000" si="15">C963&amp;D963&amp;M963</f>
+        <f t="shared" ref="A963:A1000" si="15">C963&amp;F963&amp;J963</f>
         <v/>
       </c>
       <c r="K963" s="40"/>

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Scotland</t>
   </si>
@@ -81,9 +81,6 @@
     <t>NHS Greater Glasgow &amp; Clyde</t>
   </si>
   <si>
-    <t>S08000021</t>
-  </si>
-  <si>
     <t>NHS Highland</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>NHS Lanarkshire</t>
-  </si>
-  <si>
-    <t>S08000023</t>
   </si>
   <si>
     <t>NHS Lothian</t>
@@ -135,9 +129,6 @@
     <t>Crude Mortality Rate (%)</t>
   </si>
   <si>
-    <t>Whilst NHS Board figures will include all acute patients treated within the NHS Board area.</t>
-  </si>
-  <si>
     <t>Select NHS Board:</t>
   </si>
   <si>
@@ -148,12 +139,6 @@
   </si>
   <si>
     <t>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The sum of individual hospitals may not equal the NHS Board figures as only Teaching, Large and Small General </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitals are presented here. </t>
   </si>
   <si>
     <t>Crude Mortality</t>
@@ -169,6 +154,18 @@
   </si>
   <si>
     <t>lookup</t>
+  </si>
+  <si>
+    <t>1. The sum of individual hospitals may not equal the NHS Board figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Teaching, Large and Small General Hospitals are presented individually, whilst NHS Board figures will include all acute patients treated within the NHS Board area. </t>
+  </si>
+  <si>
+    <t>S08000031</t>
+  </si>
+  <si>
+    <t>S08000032</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1554,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$15" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$14" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,7 +2047,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2236,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2266,23 +2263,23 @@
     <row r="11" spans="1:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,13 +3286,13 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -3308,13 +3305,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3347,9 +3344,7 @@
       <c r="AE38" s="16"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="13"/>
     </row>
     <row r="43" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -3613,7 +3608,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3740,7 +3735,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3787,13 +3782,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -3815,17 +3810,17 @@
     <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,13 +4667,13 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -4691,13 +4686,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4728,9 +4723,7 @@
       <c r="AC38" s="16"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="13"/>
     </row>
     <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -4975,7 +4968,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21720,7 +21713,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21779,7 +21772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21787,58 +21780,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Scotland</t>
   </si>
@@ -81,6 +81,9 @@
     <t>NHS Greater Glasgow &amp; Clyde</t>
   </si>
   <si>
+    <t>S08000021</t>
+  </si>
+  <si>
     <t>NHS Highland</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t>NHS Lanarkshire</t>
+  </si>
+  <si>
+    <t>S08000023</t>
   </si>
   <si>
     <t>NHS Lothian</t>
@@ -129,6 +135,9 @@
     <t>Crude Mortality Rate (%)</t>
   </si>
   <si>
+    <t>Whilst NHS Board figures will include all acute patients treated within the NHS Board area.</t>
+  </si>
+  <si>
     <t>Select NHS Board:</t>
   </si>
   <si>
@@ -139,6 +148,12 @@
   </si>
   <si>
     <t>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The sum of individual hospitals may not equal the NHS Board figures as only Teaching, Large and Small General </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitals are presented here. </t>
   </si>
   <si>
     <t>Crude Mortality</t>
@@ -154,18 +169,6 @@
   </si>
   <si>
     <t>lookup</t>
-  </si>
-  <si>
-    <t>1. The sum of individual hospitals may not equal the NHS Board figures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Teaching, Large and Small General Hospitals are presented individually, whilst NHS Board figures will include all acute patients treated within the NHS Board area. </t>
-  </si>
-  <si>
-    <t>S08000031</t>
-  </si>
-  <si>
-    <t>S08000032</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1557,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$14" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$15" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2047,7 +2050,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2233,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2263,23 +2266,23 @@
     <row r="11" spans="1:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3286,13 +3289,13 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -3305,13 +3308,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3344,7 +3347,9 @@
       <c r="AE38" s="16"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -3608,7 +3613,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3735,7 +3740,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3782,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -3810,17 +3815,17 @@
     <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,13 +4672,13 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -4686,13 +4691,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4723,7 +4728,9 @@
       <c r="AC38" s="16"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -4968,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21713,7 +21720,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21772,7 +21779,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21780,58 +21787,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Scotland</t>
   </si>
@@ -81,9 +81,6 @@
     <t>NHS Greater Glasgow &amp; Clyde</t>
   </si>
   <si>
-    <t>S08000021</t>
-  </si>
-  <si>
     <t>NHS Highland</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>NHS Lanarkshire</t>
-  </si>
-  <si>
-    <t>S08000023</t>
   </si>
   <si>
     <t>NHS Lothian</t>
@@ -135,9 +129,6 @@
     <t>Crude Mortality Rate (%)</t>
   </si>
   <si>
-    <t>Whilst NHS Board figures will include all acute patients treated within the NHS Board area.</t>
-  </si>
-  <si>
     <t>Select NHS Board:</t>
   </si>
   <si>
@@ -148,12 +139,6 @@
   </si>
   <si>
     <t>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The sum of individual hospitals may not equal the NHS Board figures as only Teaching, Large and Small General </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitals are presented here. </t>
   </si>
   <si>
     <t>Crude Mortality</t>
@@ -169,6 +154,15 @@
   </si>
   <si>
     <t>lookup</t>
+  </si>
+  <si>
+    <t>S08000032</t>
+  </si>
+  <si>
+    <t>1. The sum of individual hospitals may not equal the NHS Board figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Teaching, Large and Small General Hospitals are presented individually, whilst NHS Board figures will include all acute patients treated within the NHS Board area. </t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1551,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$15" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$7" fmlaRange="location_lookup!$B$1:$B$14" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,7 +2044,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2236,13 +2230,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2266,23 +2260,23 @@
     <row r="11" spans="1:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,13 +3283,13 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -3308,13 +3302,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3347,9 +3341,7 @@
       <c r="AE38" s="16"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="13"/>
     </row>
     <row r="43" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -3613,7 +3605,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3740,7 +3732,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3787,13 +3779,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -3815,17 +3807,17 @@
     <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,13 +4664,13 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$O$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -4691,13 +4683,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4728,9 +4720,7 @@
       <c r="AC38" s="16"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="13"/>
     </row>
     <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -4975,7 +4965,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21720,7 +21710,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21779,7 +21769,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21787,58 +21777,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Scotland</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Only Teaching, Large and Small General Hospitals are presented individually, whilst NHS Board figures will include all acute patients treated within the NHS Board area. </t>
+  </si>
+  <si>
+    <t>S08000031</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1513,7 +1515,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21710,7 +21711,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21769,7 +21770,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Robyn\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\quality_indicators\hsmr\quarter_cycle\Sam2\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3 - Discharge" sheetId="49" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD</t>
-  </si>
-  <si>
     <t>Crude Mortality</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>S08000031</t>
+  </si>
+  <si>
+    <t>Source: PHS (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS</t>
   </si>
 </sst>
 </file>
@@ -1054,6 +1054,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1515,6 +1516,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2029,7 +2031,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2045,7 +2049,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3284,7 +3288,7 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -3303,13 +3307,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3588,7 +3592,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3606,7 +3612,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3733,7 +3739,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3808,17 +3814,17 @@
     <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,7 +4671,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4684,13 +4690,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4955,7 +4961,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O4246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A1000"/>
     </sheetView>
   </sheetViews>
@@ -4966,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21770,7 +21776,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21786,7 +21792,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>20</v>

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Robyn\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Analyst folders\Scott\Updates\hsmr-pra\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3 - Discharge" sheetId="49" r:id="rId1"/>
-    <sheet name="Table 4 - PopulationMort" sheetId="57" r:id="rId2"/>
+    <sheet name="Table 3a - Discharge" sheetId="49" r:id="rId1"/>
+    <sheet name="Table 3b - PopulationMort" sheetId="57" r:id="rId2"/>
     <sheet name="data" sheetId="50" r:id="rId3"/>
     <sheet name="location_lookup" sheetId="56" state="hidden" r:id="rId4"/>
   </sheets>
@@ -138,13 +138,7 @@
     <t>All</t>
   </si>
   <si>
-    <t>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD</t>
-  </si>
-  <si>
     <t>Crude Mortality</t>
-  </si>
-  <si>
-    <t>Crude Population Mortality Rate (%)</t>
   </si>
   <si>
     <t>Observed deaths</t>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>S08000031</t>
+  </si>
+  <si>
+    <t>Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS</t>
+  </si>
+  <si>
+    <t>Crude Mortality Rate per 1,000 Population</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Table 3 - Discharge'!$B$4</c:f>
+          <c:f>'Table 3a - Discharge'!$B$4</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -557,7 +557,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Table 3 - Discharge'!$C$10:$E$10</c:f>
+              <c:f>'Table 3a - Discharge'!$C$10:$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -582,7 +582,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 3 - Discharge'!$B$13:$B$32</c:f>
+              <c:f>'Table 3a - Discharge'!$B$13:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -650,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 3 - Discharge'!$E$13:$E$32</c:f>
+              <c:f>'Table 3a - Discharge'!$E$13:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -729,7 +729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Table 3 - Discharge'!$G$10:$I$10</c:f>
+              <c:f>'Table 3a - Discharge'!$G$10:$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,7 +767,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 3 - Discharge'!$B$13:$B$32</c:f>
+              <c:f>'Table 3a - Discharge'!$B$13:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -835,7 +835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 3 - Discharge'!$I$13:$I$32</c:f>
+              <c:f>'Table 3a - Discharge'!$I$13:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1045,7 +1045,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Table 4 - PopulationMort'!$B$4</c:f>
+          <c:f>'Table 3b - PopulationMort'!$B$4</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -1054,6 +1054,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1077,7 +1078,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Table 4 - PopulationMort'!$C$10:$D$10</c:f>
+              <c:f>'Table 3b - PopulationMort'!$C$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1102,7 +1103,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 4 - PopulationMort'!$B$13:$B$32</c:f>
+              <c:f>'Table 3b - PopulationMort'!$B$13:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1170,7 +1171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 4 - PopulationMort'!$D$13:$D$32</c:f>
+              <c:f>'Table 3b - PopulationMort'!$D$13:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1249,7 +1250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Table 4 - PopulationMort'!$F$10:$G$10</c:f>
+              <c:f>'Table 3b - PopulationMort'!$F$10:$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,7 +1288,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Table 4 - PopulationMort'!$B$13:$B$32</c:f>
+              <c:f>'Table 3b - PopulationMort'!$B$13:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1355,7 +1356,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Table 4 - PopulationMort'!$G$13:$G$32</c:f>
+              <c:f>'Table 3b - PopulationMort'!$G$13:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1489,8 +1490,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Crude Rate (%)</a:t>
+                  <a:t>Crude Rate per</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> 1,000 Population</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1499,7 +1505,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.4732965009208104E-2"/>
-              <c:y val="0.34205138442201766"/>
+              <c:y val="0.15797686664300084"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1515,6 +1521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1658,9 +1665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>430125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2029,7 +2036,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2045,7 +2054,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3284,7 +3293,7 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -3303,13 +3312,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3588,7 +3597,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3606,7 +3617,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3733,7 +3744,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3805,20 +3816,20 @@
       </c>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,7 +4676,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4684,13 +4695,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4966,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21770,7 +21781,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21786,7 +21797,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>20</v>

--- a/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
+++ b/reference_files/Table3-Crude-Mortality-population-based-and-30-day-from-discharge.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3a - Discharge" sheetId="49" r:id="rId1"/>
     <sheet name="Table 3b - PopulationMort" sheetId="57" r:id="rId2"/>
-    <sheet name="data" sheetId="50" r:id="rId3"/>
-    <sheet name="location_lookup" sheetId="56" state="hidden" r:id="rId4"/>
+    <sheet name="Raw Data" sheetId="50" r:id="rId3"/>
+    <sheet name="location_lookup" sheetId="56" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$N$1639</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Raw Data'!$A$1:$N$1639</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -126,19 +126,10 @@
     <t>Number of    patients</t>
   </si>
   <si>
-    <t>Crude Mortality Rate (%)</t>
-  </si>
-  <si>
-    <t>Select NHS Board:</t>
-  </si>
-  <si>
     <t>Observed deaths (30 days)</t>
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Crude Mortality</t>
   </si>
   <si>
     <t>Observed deaths</t>
@@ -165,7 +156,16 @@
     <t>Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS</t>
   </si>
   <si>
-    <t>Crude Mortality Rate per 1,000 Population</t>
+    <t>Crude mortality</t>
+  </si>
+  <si>
+    <t>Select NHS board:</t>
+  </si>
+  <si>
+    <t>Crude mortality rate (%)</t>
+  </si>
+  <si>
+    <t>Crude mortality rate per 1,000 population</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Crude Mortality Rates within 30-days of Discharge, including all in-hospital deaths, by NHS Board of Treatment: NHS Ayrshire &amp; Arran</c:v>
+              <c:v>Crude mortality rates within 30-days of discharge, including all in-hospital deaths, by NHS board of treatment: NHS Ayrshire &amp; Arran</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -969,7 +969,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Crude Rate (%)</a:t>
+                  <a:t>Crude rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1049,7 +1049,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Crude Mortality Rates per 1,000 Population by NHS Board of Residence (All Cause): NHS Ayrshire &amp; Arran</c:v>
+              <c:v>Crude mortality rates per 1,000 population by NHS board of residence (all cause): NHS Ayrshire &amp; Arran</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1490,11 +1490,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Crude Rate per</a:t>
+                  <a:t>Crude rate per</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> 1,000 Population</a:t>
+                  <a:t> 1,000 population</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -2036,8 +2036,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2054,7 @@
     <row r="1" spans="1:31" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2154,8 +2154,8 @@
     <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="45" t="str">
-        <f>"Crude Mortality Rates within 30-days of Discharge, including all in-hospital deaths, by NHS Board of Treatment: " &amp;C10</f>
-        <v>Crude Mortality Rates within 30-days of Discharge, including all in-hospital deaths, by NHS Board of Treatment: NHS Ayrshire &amp; Arran</v>
+        <f>"Crude mortality rates within 30-days of discharge, including all in-hospital deaths, by NHS board of treatment: " &amp;C10</f>
+        <v>Crude mortality rates within 30-days of discharge, including all in-hospital deaths, by NHS board of treatment: NHS Ayrshire &amp; Arran</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -2240,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -2270,13 +2270,13 @@
     <row r="11" spans="1:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="21" t="s">
@@ -2286,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,32 +2319,32 @@
         <v>1</v>
       </c>
       <c r="B13" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E13" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I13" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J13" s="16"/>
@@ -2375,32 +2375,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E14" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I14" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J14" s="16"/>
@@ -2431,32 +2431,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E15" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I15" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V15" s="17"/>
@@ -2475,32 +2475,32 @@
         <v>4</v>
       </c>
       <c r="B16" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E16" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I16" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V16" s="17"/>
@@ -2519,32 +2519,32 @@
         <v>5</v>
       </c>
       <c r="B17" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E17" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I17" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J17" s="16"/>
@@ -2575,32 +2575,32 @@
         <v>6</v>
       </c>
       <c r="B18" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E18" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I18" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V18" s="17"/>
@@ -2619,32 +2619,32 @@
         <v>7</v>
       </c>
       <c r="B19" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E19" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I19" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J19" s="16"/>
@@ -2675,32 +2675,32 @@
         <v>8</v>
       </c>
       <c r="B20" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E20" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I20" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V20" s="17"/>
@@ -2719,32 +2719,32 @@
         <v>9</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E21" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I21" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V21" s="17"/>
@@ -2763,32 +2763,32 @@
         <v>10</v>
       </c>
       <c r="B22" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E22" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I22" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J22" s="16"/>
@@ -2819,32 +2819,32 @@
         <v>11</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E23" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I23" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V23" s="17"/>
@@ -2863,32 +2863,32 @@
         <v>12</v>
       </c>
       <c r="B24" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E24" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I24" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J24" s="16"/>
@@ -2919,32 +2919,32 @@
         <v>13</v>
       </c>
       <c r="B25" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E25" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I25" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V25" s="17"/>
@@ -2963,32 +2963,32 @@
         <v>14</v>
       </c>
       <c r="B26" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E26" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I26" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J26" s="14"/>
@@ -3019,32 +3019,32 @@
         <v>15</v>
       </c>
       <c r="B27" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E27" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I27" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V27" s="17"/>
@@ -3063,32 +3063,32 @@
         <v>16</v>
       </c>
       <c r="B28" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E28" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I28" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V28" s="17"/>
@@ -3107,32 +3107,32 @@
         <v>17</v>
       </c>
       <c r="B29" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E29" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I29" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="J29" s="14"/>
@@ -3163,32 +3163,32 @@
         <v>18</v>
       </c>
       <c r="B30" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E30" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I30" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V30" s="17"/>
@@ -3207,32 +3207,32 @@
         <v>19</v>
       </c>
       <c r="B31" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E31" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I31" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V31" s="17"/>
@@ -3251,32 +3251,32 @@
         <v>20</v>
       </c>
       <c r="B32" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,B$12,FALSE))&amp;"p"</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,B$12,FALSE))&amp;"p"</f>
         <v>-p</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E32" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="I32" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",data!$A:$P,E$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Discharge",'Raw Data'!$A:$P,E$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="V32" s="17"/>
@@ -3293,13 +3293,13 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT('Raw Data'!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -3312,13 +3312,13 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -3597,8 +3597,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,7 +3617,7 @@
     <row r="1" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3711,8 +3711,8 @@
     <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="45" t="str">
-        <f>"Crude Mortality Rates per 1,000 Population by NHS Board of Residence (All Cause): "&amp;C10</f>
-        <v>Crude Mortality Rates per 1,000 Population by NHS Board of Residence (All Cause): NHS Ayrshire &amp; Arran</v>
+        <f>"Crude mortality rates per 1,000 population by NHS board of residence (all cause): "&amp;C10</f>
+        <v>Crude mortality rates per 1,000 population by NHS board of residence (all cause): NHS Ayrshire &amp; Arran</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="5" spans="1:29" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3791,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -3819,14 +3819,14 @@
     <row r="11" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>46</v>
@@ -3862,24 +3862,24 @@
         <v>1</v>
       </c>
       <c r="B13" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D13" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A13&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G13" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A13&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A13&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H13" s="16"/>
@@ -3910,24 +3910,24 @@
         <v>2</v>
       </c>
       <c r="B14" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D14" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A14&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G14" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A14&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A14&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H14" s="16"/>
@@ -3958,24 +3958,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D15" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A15&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G15" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A15&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A15&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T15" s="17"/>
@@ -3994,24 +3994,24 @@
         <v>4</v>
       </c>
       <c r="B16" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D16" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A16&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G16" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A16&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A16&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T16" s="17"/>
@@ -4030,24 +4030,24 @@
         <v>5</v>
       </c>
       <c r="B17" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D17" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A17&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G17" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A17&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A17&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H17" s="16"/>
@@ -4078,24 +4078,24 @@
         <v>6</v>
       </c>
       <c r="B18" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D18" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A18&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G18" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A18&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A18&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T18" s="17"/>
@@ -4114,24 +4114,24 @@
         <v>7</v>
       </c>
       <c r="B19" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D19" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A19&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G19" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A19&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A19&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H19" s="16"/>
@@ -4162,24 +4162,24 @@
         <v>8</v>
       </c>
       <c r="B20" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D20" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A20&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G20" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A20&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A20&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T20" s="17"/>
@@ -4198,24 +4198,24 @@
         <v>9</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D21" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A21&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G21" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A21&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A21&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T21" s="17"/>
@@ -4234,24 +4234,24 @@
         <v>10</v>
       </c>
       <c r="B22" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D22" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A22&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G22" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A22&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A22&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H22" s="16"/>
@@ -4282,24 +4282,24 @@
         <v>11</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D23" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A23&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G23" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A23&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A23&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T23" s="17"/>
@@ -4318,24 +4318,24 @@
         <v>12</v>
       </c>
       <c r="B24" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D24" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A24&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G24" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A24&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A24&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H24" s="16"/>
@@ -4366,24 +4366,24 @@
         <v>13</v>
       </c>
       <c r="B25" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D25" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A25&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G25" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A25&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A25&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T25" s="17"/>
@@ -4402,24 +4402,24 @@
         <v>14</v>
       </c>
       <c r="B26" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D26" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A26&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G26" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A26&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A26&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H26" s="14"/>
@@ -4450,24 +4450,24 @@
         <v>15</v>
       </c>
       <c r="B27" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D27" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A27&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G27" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A27&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A27&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T27" s="17"/>
@@ -4486,24 +4486,24 @@
         <v>16</v>
       </c>
       <c r="B28" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D28" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A28&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G28" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A28&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A28&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T28" s="17"/>
@@ -4522,24 +4522,24 @@
         <v>17</v>
       </c>
       <c r="B29" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D29" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A29&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G29" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A29&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A29&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="H29" s="14"/>
@@ -4570,24 +4570,24 @@
         <v>18</v>
       </c>
       <c r="B30" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D30" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A30&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G30" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A30&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A30&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T30" s="17"/>
@@ -4606,24 +4606,24 @@
         <v>19</v>
       </c>
       <c r="B31" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,B$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="C31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D31" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A31&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G31" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A31&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A31&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T31" s="17"/>
@@ -4642,24 +4642,24 @@
         <v>20</v>
       </c>
       <c r="B32" s="41" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,B$12,FALSE))&amp;"p"</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,B$12,FALSE))&amp;"p"</f>
         <v>-p</v>
       </c>
       <c r="C32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="D32" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP($A$6&amp;$A32&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="32" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,C$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",'Raw Data'!$A:$P,C$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="G32" s="42" t="str">
-        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",data!$A:$P,D$12,FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP("Scot"&amp;$A32&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE)),"-",VLOOKUP("Scot"&amp;$A32&amp;"Population",'Raw Data'!$A:$P,D$12,FALSE))</f>
         <v>-</v>
       </c>
       <c r="T32" s="17"/>
@@ -4676,13 +4676,13 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="str">
-        <f>"for individual hospitals as of " &amp; TEXT(data!$M$2,"DD MMM YYYY")</f>
+        <f>"for individual hospitals as of " &amp; TEXT('Raw Data'!$M$2,"DD MMM YYYY")</f>
         <v>for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -4695,13 +4695,13 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -4977,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -21781,7 +21781,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -21797,7 +21797,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>20</v>
